--- a/data/trans_bre/P69_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Edad-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,65</t>
+          <t>0,0; 9,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,68</t>
+          <t>0,0; 10,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,32</t>
+          <t>0,0; 4,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,98</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 0,0</t>
+          <t>-8,53; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,51</t>
+          <t>0,0; 4,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,36</t>
+          <t>0,0; 6,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 0,0</t>
+          <t>-8,53; 0,0</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,1</t>
+          <t>0,0; 5,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 6,07</t>
+          <t>-0,55; 5,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,38</t>
+          <t>0,0; 5,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 6,46</t>
+          <t>-0,55; 6,39</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,03</t>
+          <t>0,0; 4,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -978,17 +978,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 2,24</t>
+          <t>-7,89; 2,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 2,2</t>
+          <t>-2,99; 1,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,3</t>
+          <t>0,0; 4,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 2,29</t>
+          <t>-7,89; 2,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,26</t>
+          <t>-3,01; 2,06</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,57</t>
+          <t>0,0; 9,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,0</t>
+          <t>-1,69; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,58</t>
+          <t>0,0; 10,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,0</t>
+          <t>-1,69; 0,0</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,87</t>
+          <t>0,22; 2,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1278,17 +1278,17 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,22</t>
+          <t>-0,96; 1,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,06</t>
+          <t>-1,44; 1,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,9</t>
+          <t>0,22; 2,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,28</t>
+          <t>-0,96; 2,02</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 1,07</t>
+          <t>-1,44; 1,19</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P69_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,68</t>
+          <t>0,0; 9,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,71</t>
+          <t>0,0; 10,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,57</t>
+          <t>0,0; 4,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,15</t>
+          <t>0,0; 7,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,79</t>
+          <t>0,0; 4,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,56</t>
+          <t>0,0; 8,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,14</t>
+          <t>0,0; 5,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,42</t>
+          <t>0,0; 5,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,71</t>
+          <t>0,0; 3,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 2,29</t>
+          <t>-8,23; 2,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,7 +988,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,94</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 2,34</t>
+          <t>-8,39; 2,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,45</t>
+          <t>0,0; 10,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,44</t>
+          <t>0,0; 11,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,13</t>
+          <t>0,21; 2,02</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,98</t>
+          <t>-0,78; 1,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,17</t>
+          <t>0,21; 2,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,26</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,02</t>
+          <t>-0,79; 1,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P69_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,58</t>
+          <t>0,0; 9,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,6</t>
+          <t>0,0; 10,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,76</t>
+          <t>0,0; 4,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,56</t>
+          <t>0,0; 5,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 0,0</t>
+          <t>-8,92; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,99</t>
+          <t>0,0; 4,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,18</t>
+          <t>0,0; 6,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 0,0</t>
+          <t>-8,92; 0,0</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,09</t>
+          <t>0,0; 5,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 5,99</t>
+          <t>-0,58; 6,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,37</t>
+          <t>0,0; 5,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 6,39</t>
+          <t>-0,58; 6,46</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,96</t>
+          <t>0,0; 5,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -978,17 +978,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 2,29</t>
+          <t>-7,82; 2,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,98</t>
+          <t>-3,22; 2,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,12</t>
+          <t>0,0; 5,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 2,34</t>
+          <t>-7,92; 2,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 2,06</t>
+          <t>-3,24; 2,26</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,53</t>
+          <t>0,0; 9,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,0</t>
+          <t>-1,4; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,78</t>
+          <t>0,0; 10,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,0</t>
+          <t>-1,4; 0,0</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,02</t>
+          <t>0,21; 1,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,23</t>
+          <t>0,0; 1,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 1,95</t>
+          <t>-0,96; 2,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,18</t>
+          <t>-1,51; 1,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,06</t>
+          <t>0,21; 1,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,99</t>
+          <t>-0,97; 2,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 1,19</t>
+          <t>-1,51; 1,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P69_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-1,69%</t>
+          <t>-1,77%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 0,0</t>
+          <t>-9,16; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 0,0</t>
+          <t>-9,16; 0,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 6,07</t>
+          <t>-0,58; 5,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 6,46</t>
+          <t>-0,61; 5,4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,76%</t>
+          <t>-0,47%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 2,2</t>
+          <t>-2,7; 2,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,26</t>
+          <t>-2,73; 2,88</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,26%</t>
+          <t>-0,29%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,0</t>
+          <t>-1,53; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 0,0</t>
+          <t>-1,53; 0,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,21; 1,87</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,0; 1,24</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-0,96; 2,22</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 1,06</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-1,45; 1,02</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>0,21; 1,9</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>0,0; 1,26</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-0,97; 2,28</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-1,51; 1,07</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 1,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P69_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P69_R-Edad-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,65</t>
+          <t>0,0; 9,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,68</t>
+          <t>0,0; 10,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,32</t>
+          <t>0,0; 5,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -778,17 +778,17 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,98</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 0,0</t>
+          <t>-9,29; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,51</t>
+          <t>0,0; 6,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -798,12 +798,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,36</t>
+          <t>0,0; 6,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 0,0</t>
+          <t>-9,29; 0,0</t>
         </is>
       </c>
     </row>
@@ -878,12 +878,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,1</t>
+          <t>0,0; 5,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 5,17</t>
+          <t>-0,62; 4,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -898,12 +898,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,38</t>
+          <t>0,0; 5,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,4</t>
+          <t>-0,65; 5,14</t>
         </is>
       </c>
     </row>
@@ -968,7 +968,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,03</t>
+          <t>0,0; 5,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -978,17 +978,17 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 2,24</t>
+          <t>-8,05; 2,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 2,81</t>
+          <t>-2,44; 2,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,3</t>
+          <t>0,0; 5,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -998,12 +998,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 2,29</t>
+          <t>-8,06; 2,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 2,88</t>
+          <t>-2,45; 2,86</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,57</t>
+          <t>0,0; 7,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,0</t>
+          <t>-1,8; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,58</t>
+          <t>0,0; 8,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,0</t>
+          <t>-1,8; 0,0</t>
         </is>
       </c>
     </row>
@@ -1368,27 +1368,27 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,87</t>
+          <t>0,21; 2,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,24</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 2,22</t>
+          <t>-1,03; 1,98</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,02</t>
+          <t>-1,52; 1,06</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,9</t>
+          <t>0,21; 2,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1398,12 +1398,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 2,28</t>
+          <t>-1,03; 2,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,04</t>
+          <t>-1,53; 1,08</t>
         </is>
       </c>
     </row>
